--- a/ResidentPassword.xlsx
+++ b/ResidentPassword.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>427217</v>
+        <v>994672</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>563913</v>
+        <v>182801</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>21128</v>
+        <v>120938</v>
       </c>
     </row>
     <row r="5">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>348641</v>
+        <v>238827</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>364215</v>
+        <v>534501</v>
       </c>
     </row>
     <row r="7">
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>575572</v>
+        <v>276259</v>
       </c>
     </row>
     <row r="8">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>261446</v>
+        <v>797810</v>
       </c>
     </row>
     <row r="9">
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>151492</v>
+        <v>335246</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>223029</v>
+        <v>967659</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>770358</v>
+        <v>585389</v>
       </c>
     </row>
     <row r="12">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>460190</v>
+        <v>566691</v>
       </c>
     </row>
     <row r="13">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>767981</v>
+        <v>228501</v>
       </c>
     </row>
     <row r="14">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>615831</v>
+        <v>830407</v>
       </c>
     </row>
     <row r="15">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>696760</v>
+        <v>691080</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>731204</v>
+        <v>408624</v>
       </c>
     </row>
     <row r="17">
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>735076</v>
+        <v>370950</v>
       </c>
     </row>
     <row r="18">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>660114</v>
+        <v>121853</v>
       </c>
     </row>
     <row r="19">
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>527960</v>
+        <v>267774</v>
       </c>
     </row>
     <row r="20">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>686641</v>
+        <v>758381</v>
       </c>
     </row>
     <row r="21">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>142445</v>
+        <v>793902</v>
       </c>
     </row>
     <row r="22">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>959324</v>
+        <v>975766</v>
       </c>
     </row>
     <row r="23">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>750785</v>
+        <v>311848</v>
       </c>
     </row>
     <row r="24">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>711861</v>
+        <v>947792</v>
       </c>
     </row>
     <row r="25">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>433345</v>
+        <v>730571</v>
       </c>
     </row>
     <row r="26">
@@ -1090,7 +1090,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>205128</v>
+        <v>913760</v>
       </c>
     </row>
     <row r="27">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>450820</v>
+        <v>155929</v>
       </c>
     </row>
     <row r="28">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>921381</v>
+        <v>794580</v>
       </c>
     </row>
     <row r="29">
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>190284</v>
+        <v>271268</v>
       </c>
     </row>
     <row r="30">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>279339</v>
+        <v>679094</v>
       </c>
     </row>
     <row r="31">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>621891</v>
+        <v>833214</v>
       </c>
     </row>
     <row r="32">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>890763</v>
+        <v>522687</v>
       </c>
     </row>
     <row r="33">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>890990</v>
+        <v>893409</v>
       </c>
     </row>
     <row r="34">
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>61686</v>
+        <v>112294</v>
       </c>
     </row>
     <row r="35">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>291549</v>
+        <v>201193</v>
       </c>
     </row>
     <row r="36">
@@ -1370,7 +1370,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>146710</v>
+        <v>213487</v>
       </c>
     </row>
     <row r="37">
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>336133</v>
+        <v>338818</v>
       </c>
     </row>
     <row r="38">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>557095</v>
+        <v>978615</v>
       </c>
     </row>
     <row r="39">
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>591584</v>
+        <v>582004</v>
       </c>
     </row>
     <row r="40">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>764358</v>
+        <v>401985</v>
       </c>
     </row>
     <row r="41">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>262612</v>
+        <v>131266</v>
       </c>
     </row>
     <row r="42">
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>753529</v>
+        <v>525051</v>
       </c>
     </row>
     <row r="43">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>627778</v>
+        <v>198835</v>
       </c>
     </row>
     <row r="44">
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>443530</v>
+        <v>922025</v>
       </c>
     </row>
     <row r="45">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>182190</v>
+        <v>710673</v>
       </c>
     </row>
     <row r="46">
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>377716</v>
+        <v>444953</v>
       </c>
     </row>
     <row r="47">
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>856430</v>
+        <v>117001</v>
       </c>
     </row>
     <row r="48">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>468828</v>
+        <v>361593</v>
       </c>
     </row>
     <row r="49">
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>122872</v>
+        <v>916676</v>
       </c>
     </row>
     <row r="50">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>407125</v>
+        <v>675651</v>
       </c>
     </row>
     <row r="51">
@@ -1790,7 +1790,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>107242</v>
+        <v>840318</v>
       </c>
     </row>
     <row r="52">
@@ -1818,7 +1818,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>207617</v>
+        <v>706022</v>
       </c>
     </row>
     <row r="53">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>312229</v>
+        <v>960668</v>
       </c>
     </row>
     <row r="54">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>217189</v>
+        <v>953413</v>
       </c>
     </row>
     <row r="55">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>987560</v>
+        <v>708900</v>
       </c>
     </row>
     <row r="56">
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>501720</v>
+        <v>181348</v>
       </c>
     </row>
     <row r="57">
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>74044</v>
+        <v>118672</v>
       </c>
     </row>
     <row r="58">
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>757106</v>
+        <v>638743</v>
       </c>
     </row>
     <row r="59">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>832590</v>
+        <v>408337</v>
       </c>
     </row>
     <row r="60">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>289256</v>
+        <v>159297</v>
       </c>
     </row>
     <row r="61">
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>175279</v>
+        <v>358843</v>
       </c>
     </row>
     <row r="62">
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>491348</v>
+        <v>991874</v>
       </c>
     </row>
     <row r="63">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>487193</v>
+        <v>632607</v>
       </c>
     </row>
     <row r="64">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>113857</v>
+        <v>261880</v>
       </c>
     </row>
     <row r="65">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>731317</v>
+        <v>956863</v>
       </c>
     </row>
     <row r="66">
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>374475</v>
+        <v>182162</v>
       </c>
     </row>
     <row r="67">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>177340</v>
+        <v>463841</v>
       </c>
     </row>
     <row r="68">
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>393501</v>
+        <v>975787</v>
       </c>
     </row>
     <row r="69">
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>308696</v>
+        <v>803837</v>
       </c>
     </row>
     <row r="70">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>8028</v>
+        <v>664973</v>
       </c>
     </row>
     <row r="71">
@@ -2350,7 +2350,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>82720</v>
+        <v>157945</v>
       </c>
     </row>
     <row r="72">
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>56992</v>
+        <v>158522</v>
       </c>
     </row>
     <row r="73">
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>525399</v>
+        <v>700569</v>
       </c>
     </row>
     <row r="74">
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>285663</v>
+        <v>601275</v>
       </c>
     </row>
     <row r="75">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>233075</v>
+        <v>797647</v>
       </c>
     </row>
     <row r="76">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>588459</v>
+        <v>292261</v>
       </c>
     </row>
     <row r="77">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>574429</v>
+        <v>176248</v>
       </c>
     </row>
     <row r="78">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>807963</v>
+        <v>659022</v>
       </c>
     </row>
     <row r="79">
@@ -2574,7 +2574,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>30110</v>
+        <v>108614</v>
       </c>
     </row>
     <row r="80">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>44234</v>
+        <v>261925</v>
       </c>
     </row>
     <row r="81">
@@ -2630,7 +2630,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>982554</v>
+        <v>226829</v>
       </c>
     </row>
     <row r="82">
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>992278</v>
+        <v>804998</v>
       </c>
     </row>
     <row r="83">
@@ -2686,7 +2686,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>377959</v>
+        <v>987140</v>
       </c>
     </row>
     <row r="84">
@@ -2714,7 +2714,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>295575</v>
+        <v>466686</v>
       </c>
     </row>
     <row r="85">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>980821</v>
+        <v>506210</v>
       </c>
     </row>
     <row r="86">
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>400455</v>
+        <v>803148</v>
       </c>
     </row>
     <row r="87">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>71409</v>
+        <v>452916</v>
       </c>
     </row>
     <row r="88">
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>373438</v>
+        <v>108282</v>
       </c>
     </row>
     <row r="89">
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>325792</v>
+        <v>214947</v>
       </c>
     </row>
     <row r="90">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>217322</v>
+        <v>309673</v>
       </c>
     </row>
     <row r="91">
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>816850</v>
+        <v>486780</v>
       </c>
     </row>
     <row r="92">
@@ -2938,7 +2938,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>866015</v>
+        <v>667308</v>
       </c>
     </row>
     <row r="93">
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>742662</v>
+        <v>886530</v>
       </c>
     </row>
     <row r="94">
@@ -2994,7 +2994,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>156320</v>
+        <v>813908</v>
       </c>
     </row>
     <row r="95">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>471835</v>
+        <v>493492</v>
       </c>
     </row>
     <row r="96">
@@ -3050,7 +3050,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>688029</v>
+        <v>932509</v>
       </c>
     </row>
     <row r="97">
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>679294</v>
+        <v>969789</v>
       </c>
     </row>
     <row r="98">
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>66465</v>
+        <v>705386</v>
       </c>
     </row>
     <row r="99">
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>927549</v>
+        <v>634684</v>
       </c>
     </row>
     <row r="100">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>630587</v>
+        <v>486748</v>
       </c>
     </row>
     <row r="101">
@@ -3190,7 +3190,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>115379</v>
+        <v>556868</v>
       </c>
     </row>
     <row r="102">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>419691</v>
+        <v>387301</v>
       </c>
     </row>
     <row r="103">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>228568</v>
+        <v>896914</v>
       </c>
     </row>
     <row r="104">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>428050</v>
+        <v>209243</v>
       </c>
     </row>
     <row r="105">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>151106</v>
+        <v>183380</v>
       </c>
     </row>
     <row r="106">
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>547162</v>
+        <v>962993</v>
       </c>
     </row>
     <row r="107">
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>868361</v>
+        <v>334671</v>
       </c>
     </row>
     <row r="108">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>34299</v>
+        <v>140954</v>
       </c>
     </row>
     <row r="109">
@@ -3414,7 +3414,7 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>84787</v>
+        <v>870885</v>
       </c>
     </row>
     <row r="110">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>357479</v>
+        <v>591030</v>
       </c>
     </row>
     <row r="111">
@@ -3470,7 +3470,7 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>111321</v>
+        <v>245697</v>
       </c>
     </row>
     <row r="112">
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>531839</v>
+        <v>231771</v>
       </c>
     </row>
     <row r="113">
@@ -3526,7 +3526,7 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>595301</v>
+        <v>613558</v>
       </c>
     </row>
     <row r="114">
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>142026</v>
+        <v>641209</v>
       </c>
     </row>
     <row r="115">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>984884</v>
+        <v>634108</v>
       </c>
     </row>
     <row r="116">
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>313583</v>
+        <v>749272</v>
       </c>
     </row>
     <row r="117">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>110480</v>
+        <v>955401</v>
       </c>
     </row>
     <row r="118">
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>743886</v>
+        <v>748137</v>
       </c>
     </row>
     <row r="119">
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>547459</v>
+        <v>447346</v>
       </c>
     </row>
     <row r="120">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>774237</v>
+        <v>668155</v>
       </c>
     </row>
     <row r="121">
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>763764</v>
+        <v>658449</v>
       </c>
     </row>
     <row r="122">
@@ -3778,7 +3778,7 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>215171</v>
+        <v>923437</v>
       </c>
     </row>
     <row r="123">
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>703437</v>
+        <v>451275</v>
       </c>
     </row>
     <row r="124">
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>938060</v>
+        <v>403125</v>
       </c>
     </row>
     <row r="125">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>519207</v>
+        <v>523850</v>
       </c>
     </row>
     <row r="126">
@@ -3890,7 +3890,7 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>911995</v>
+        <v>738729</v>
       </c>
     </row>
     <row r="127">
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>229711</v>
+        <v>198766</v>
       </c>
     </row>
     <row r="128">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>353008</v>
+        <v>539250</v>
       </c>
     </row>
     <row r="129">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>150040</v>
+        <v>272131</v>
       </c>
     </row>
     <row r="130">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>297346</v>
+        <v>889908</v>
       </c>
     </row>
     <row r="131">
@@ -4030,7 +4030,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>90702</v>
+        <v>754659</v>
       </c>
     </row>
     <row r="132">
@@ -4058,7 +4058,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>224133</v>
+        <v>809293</v>
       </c>
     </row>
     <row r="133">
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>844534</v>
+        <v>519183</v>
       </c>
     </row>
     <row r="134">
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>813578</v>
+        <v>356473</v>
       </c>
     </row>
     <row r="135">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>985641</v>
+        <v>373453</v>
       </c>
     </row>
     <row r="136">
@@ -4170,7 +4170,7 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>836606</v>
+        <v>757864</v>
       </c>
     </row>
     <row r="137">
@@ -4198,7 +4198,7 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>267895</v>
+        <v>783798</v>
       </c>
     </row>
     <row r="138">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>672295</v>
+        <v>821913</v>
       </c>
     </row>
     <row r="139">
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>513057</v>
+        <v>352235</v>
       </c>
     </row>
     <row r="140">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>998586</v>
+        <v>614212</v>
       </c>
     </row>
     <row r="141">
@@ -4310,7 +4310,7 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>742373</v>
+        <v>168297</v>
       </c>
     </row>
     <row r="142">
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>97210</v>
+        <v>906586</v>
       </c>
     </row>
     <row r="143">
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>186316</v>
+        <v>445027</v>
       </c>
     </row>
     <row r="144">
@@ -4394,7 +4394,7 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>625339</v>
+        <v>418292</v>
       </c>
     </row>
     <row r="145">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>724005</v>
+        <v>176304</v>
       </c>
     </row>
     <row r="146">
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>686616</v>
+        <v>853912</v>
       </c>
     </row>
     <row r="147">
@@ -4478,7 +4478,7 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>598771</v>
+        <v>778884</v>
       </c>
     </row>
     <row r="148">
@@ -4506,7 +4506,7 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>120</v>
+        <v>297299</v>
       </c>
     </row>
     <row r="149">
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>419857</v>
+        <v>288885</v>
       </c>
     </row>
     <row r="150">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>991813</v>
+        <v>139594</v>
       </c>
     </row>
     <row r="151">
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="F151" t="n">
-        <v>68125</v>
+        <v>573036</v>
       </c>
     </row>
     <row r="152">
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="F152" t="n">
-        <v>381932</v>
+        <v>166980</v>
       </c>
     </row>
     <row r="153">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>314626</v>
+        <v>450827</v>
       </c>
     </row>
     <row r="154">
@@ -4674,7 +4674,7 @@
         </is>
       </c>
       <c r="F154" t="n">
-        <v>441485</v>
+        <v>742084</v>
       </c>
     </row>
     <row r="155">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="F155" t="n">
-        <v>868196</v>
+        <v>667901</v>
       </c>
     </row>
     <row r="156">
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="F156" t="n">
-        <v>632000</v>
+        <v>900281</v>
       </c>
     </row>
     <row r="157">
@@ -4758,7 +4758,7 @@
         </is>
       </c>
       <c r="F157" t="n">
-        <v>847981</v>
+        <v>788629</v>
       </c>
     </row>
     <row r="158">
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="F158" t="n">
-        <v>936913</v>
+        <v>209745</v>
       </c>
     </row>
     <row r="159">
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="F159" t="n">
-        <v>792904</v>
+        <v>313103</v>
       </c>
     </row>
     <row r="160">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>973985</v>
+        <v>922385</v>
       </c>
     </row>
     <row r="161">
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>408188</v>
+        <v>518255</v>
       </c>
     </row>
     <row r="162">
@@ -4898,7 +4898,7 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>810426</v>
+        <v>577908</v>
       </c>
     </row>
     <row r="163">
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>272596</v>
+        <v>985077</v>
       </c>
     </row>
     <row r="164">
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="F164" t="n">
-        <v>89078</v>
+        <v>704281</v>
       </c>
     </row>
     <row r="165">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="F165" t="n">
-        <v>890072</v>
+        <v>474444</v>
       </c>
     </row>
     <row r="166">
@@ -5010,7 +5010,7 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>285036</v>
+        <v>583634</v>
       </c>
     </row>
     <row r="167">
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>119674</v>
+        <v>959359</v>
       </c>
     </row>
     <row r="168">
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>983286</v>
+        <v>498869</v>
       </c>
     </row>
     <row r="169">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>577604</v>
+        <v>194714</v>
       </c>
     </row>
     <row r="170">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F170" t="n">
-        <v>954246</v>
+        <v>899558</v>
       </c>
     </row>
     <row r="171">
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="F171" t="n">
-        <v>978542</v>
+        <v>488457</v>
       </c>
     </row>
     <row r="172">
@@ -5178,7 +5178,7 @@
         </is>
       </c>
       <c r="F172" t="n">
-        <v>93172</v>
+        <v>870851</v>
       </c>
     </row>
     <row r="173">
@@ -5206,7 +5206,7 @@
         </is>
       </c>
       <c r="F173" t="n">
-        <v>308544</v>
+        <v>823478</v>
       </c>
     </row>
     <row r="174">
@@ -5234,7 +5234,7 @@
         </is>
       </c>
       <c r="F174" t="n">
-        <v>91474</v>
+        <v>265272</v>
       </c>
     </row>
     <row r="175">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>750281</v>
+        <v>190977</v>
       </c>
     </row>
     <row r="176">
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="F176" t="n">
-        <v>467305</v>
+        <v>659466</v>
       </c>
     </row>
     <row r="177">
@@ -5318,7 +5318,7 @@
         </is>
       </c>
       <c r="F177" t="n">
-        <v>728963</v>
+        <v>287840</v>
       </c>
     </row>
     <row r="178">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>299679</v>
+        <v>740363</v>
       </c>
     </row>
     <row r="179">
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>683372</v>
+        <v>448408</v>
       </c>
     </row>
     <row r="180">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>131088</v>
+        <v>536788</v>
       </c>
     </row>
     <row r="181">
@@ -5430,7 +5430,7 @@
         </is>
       </c>
       <c r="F181" t="n">
-        <v>130651</v>
+        <v>446313</v>
       </c>
     </row>
     <row r="182">
@@ -5458,7 +5458,7 @@
         </is>
       </c>
       <c r="F182" t="n">
-        <v>840504</v>
+        <v>242966</v>
       </c>
     </row>
     <row r="183">
@@ -5486,7 +5486,7 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>418197</v>
+        <v>966331</v>
       </c>
     </row>
     <row r="184">
@@ -5514,7 +5514,7 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>262945</v>
+        <v>705883</v>
       </c>
     </row>
     <row r="185">
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="F185" t="n">
-        <v>946672</v>
+        <v>263821</v>
       </c>
     </row>
     <row r="186">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="F186" t="n">
-        <v>294489</v>
+        <v>299106</v>
       </c>
     </row>
     <row r="187">
@@ -5598,7 +5598,7 @@
         </is>
       </c>
       <c r="F187" t="n">
-        <v>606280</v>
+        <v>819634</v>
       </c>
     </row>
     <row r="188">
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>73740</v>
+        <v>514231</v>
       </c>
     </row>
     <row r="189">
@@ -5654,7 +5654,7 @@
         </is>
       </c>
       <c r="F189" t="n">
-        <v>573914</v>
+        <v>671907</v>
       </c>
     </row>
     <row r="190">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="F190" t="n">
-        <v>795175</v>
+        <v>783874</v>
       </c>
     </row>
     <row r="191">
@@ -5710,7 +5710,7 @@
         </is>
       </c>
       <c r="F191" t="n">
-        <v>700189</v>
+        <v>330979</v>
       </c>
     </row>
     <row r="192">
@@ -5730,7 +5730,7 @@
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="n">
-        <v>910708</v>
+        <v>716137</v>
       </c>
     </row>
     <row r="193">
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>304361</v>
+        <v>569028</v>
       </c>
     </row>
     <row r="194">
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>150625</v>
+        <v>719370</v>
       </c>
     </row>
     <row r="195">
@@ -5814,7 +5814,7 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>784631</v>
+        <v>618543</v>
       </c>
     </row>
     <row r="196">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>706404</v>
+        <v>218119</v>
       </c>
     </row>
     <row r="197">
@@ -5870,7 +5870,7 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>496272</v>
+        <v>681115</v>
       </c>
     </row>
     <row r="198">
@@ -5898,7 +5898,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>574829</v>
+        <v>707676</v>
       </c>
     </row>
     <row r="199">
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>728377</v>
+        <v>146749</v>
       </c>
     </row>
     <row r="200">
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>67994</v>
+        <v>512991</v>
       </c>
     </row>
     <row r="201">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="F201" t="n">
-        <v>312525</v>
+        <v>984729</v>
       </c>
     </row>
     <row r="202">
@@ -6010,7 +6010,7 @@
         </is>
       </c>
       <c r="F202" t="n">
-        <v>46228</v>
+        <v>878733</v>
       </c>
     </row>
     <row r="203">
@@ -6038,7 +6038,7 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>539326</v>
+        <v>742630</v>
       </c>
     </row>
     <row r="204">
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>968667</v>
+        <v>916818</v>
       </c>
     </row>
     <row r="205">
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="F205" t="n">
-        <v>398868</v>
+        <v>830431</v>
       </c>
     </row>
     <row r="206">
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="F206" t="n">
-        <v>837627</v>
+        <v>852548</v>
       </c>
     </row>
     <row r="207">
@@ -6150,7 +6150,7 @@
         </is>
       </c>
       <c r="F207" t="n">
-        <v>893426</v>
+        <v>254093</v>
       </c>
     </row>
     <row r="208">
@@ -6178,7 +6178,7 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>537508</v>
+        <v>842750</v>
       </c>
     </row>
     <row r="209">
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="F209" t="n">
-        <v>4474</v>
+        <v>333435</v>
       </c>
     </row>
     <row r="210">
@@ -6234,7 +6234,7 @@
         </is>
       </c>
       <c r="F210" t="n">
-        <v>874940</v>
+        <v>727025</v>
       </c>
     </row>
     <row r="211">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="F211" t="n">
-        <v>755168</v>
+        <v>800530</v>
       </c>
     </row>
     <row r="212">
@@ -6290,7 +6290,7 @@
         </is>
       </c>
       <c r="F212" t="n">
-        <v>798874</v>
+        <v>233683</v>
       </c>
     </row>
     <row r="213">
@@ -6318,7 +6318,7 @@
         </is>
       </c>
       <c r="F213" t="n">
-        <v>20771</v>
+        <v>283977</v>
       </c>
     </row>
     <row r="214">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="F214" t="n">
-        <v>410001</v>
+        <v>615007</v>
       </c>
     </row>
     <row r="215">
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="F215" t="n">
-        <v>563444</v>
+        <v>819407</v>
       </c>
     </row>
     <row r="216">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="F216" t="n">
-        <v>886596</v>
+        <v>890786</v>
       </c>
     </row>
     <row r="217">
@@ -6430,7 +6430,7 @@
         </is>
       </c>
       <c r="F217" t="n">
-        <v>874874</v>
+        <v>902189</v>
       </c>
     </row>
     <row r="218">
@@ -6458,7 +6458,7 @@
         </is>
       </c>
       <c r="F218" t="n">
-        <v>583320</v>
+        <v>638813</v>
       </c>
     </row>
     <row r="219">
@@ -6486,7 +6486,7 @@
         </is>
       </c>
       <c r="F219" t="n">
-        <v>562697</v>
+        <v>419558</v>
       </c>
     </row>
     <row r="220">
@@ -6514,7 +6514,7 @@
         </is>
       </c>
       <c r="F220" t="n">
-        <v>422934</v>
+        <v>451782</v>
       </c>
     </row>
     <row r="221">
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="F221" t="n">
-        <v>913056</v>
+        <v>194213</v>
       </c>
     </row>
     <row r="222">
@@ -6570,7 +6570,7 @@
         </is>
       </c>
       <c r="F222" t="n">
-        <v>191459</v>
+        <v>615242</v>
       </c>
     </row>
     <row r="223">
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="F223" t="n">
-        <v>288936</v>
+        <v>311366</v>
       </c>
     </row>
     <row r="224">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="F224" t="n">
-        <v>86783</v>
+        <v>204324</v>
       </c>
     </row>
     <row r="225">
@@ -6654,7 +6654,7 @@
         </is>
       </c>
       <c r="F225" t="n">
-        <v>651440</v>
+        <v>373814</v>
       </c>
     </row>
     <row r="226">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="F226" t="n">
-        <v>130591</v>
+        <v>333288</v>
       </c>
     </row>
     <row r="227">
@@ -6710,7 +6710,7 @@
         </is>
       </c>
       <c r="F227" t="n">
-        <v>331326</v>
+        <v>768674</v>
       </c>
     </row>
     <row r="228">
@@ -6738,7 +6738,7 @@
         </is>
       </c>
       <c r="F228" t="n">
-        <v>530059</v>
+        <v>626391</v>
       </c>
     </row>
     <row r="229">
@@ -6766,7 +6766,7 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>208244</v>
+        <v>185118</v>
       </c>
     </row>
     <row r="230">
@@ -6794,7 +6794,7 @@
         </is>
       </c>
       <c r="F230" t="n">
-        <v>140261</v>
+        <v>741748</v>
       </c>
     </row>
     <row r="231">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>758976</v>
+        <v>205960</v>
       </c>
     </row>
     <row r="232">
@@ -6850,7 +6850,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>308886</v>
+        <v>746630</v>
       </c>
     </row>
     <row r="233">
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>912094</v>
+        <v>299757</v>
       </c>
     </row>
     <row r="234">
@@ -6906,7 +6906,7 @@
         </is>
       </c>
       <c r="F234" t="n">
-        <v>219660</v>
+        <v>965222</v>
       </c>
     </row>
     <row r="235">
@@ -6934,7 +6934,7 @@
         </is>
       </c>
       <c r="F235" t="n">
-        <v>202430</v>
+        <v>909278</v>
       </c>
     </row>
     <row r="236">
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>615859</v>
+        <v>543331</v>
       </c>
     </row>
     <row r="237">
@@ -6990,7 +6990,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>772400</v>
+        <v>154224</v>
       </c>
     </row>
     <row r="238">
@@ -7018,7 +7018,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>494610</v>
+        <v>881231</v>
       </c>
     </row>
     <row r="239">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="F239" t="n">
-        <v>742429</v>
+        <v>390079</v>
       </c>
     </row>
     <row r="240">
@@ -7074,7 +7074,7 @@
         </is>
       </c>
       <c r="F240" t="n">
-        <v>694484</v>
+        <v>215171</v>
       </c>
     </row>
     <row r="241">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="F241" t="n">
-        <v>823238</v>
+        <v>908727</v>
       </c>
     </row>
     <row r="242">
@@ -7130,7 +7130,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>195588</v>
+        <v>287880</v>
       </c>
     </row>
     <row r="243">
@@ -7158,7 +7158,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>354758</v>
+        <v>437925</v>
       </c>
     </row>
     <row r="244">
@@ -7186,7 +7186,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>814817</v>
+        <v>682129</v>
       </c>
     </row>
     <row r="245">
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>996444</v>
+        <v>188689</v>
       </c>
     </row>
     <row r="246">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>501159</v>
+        <v>569584</v>
       </c>
     </row>
     <row r="247">
@@ -7270,7 +7270,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>146341</v>
+        <v>953843</v>
       </c>
     </row>
     <row r="248">
@@ -7298,7 +7298,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>790995</v>
+        <v>143982</v>
       </c>
     </row>
     <row r="249">
@@ -7326,7 +7326,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>993463</v>
+        <v>274175</v>
       </c>
     </row>
     <row r="250">
@@ -7354,7 +7354,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>315927</v>
+        <v>416691</v>
       </c>
     </row>
     <row r="251">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>12406</v>
+        <v>739747</v>
       </c>
     </row>
     <row r="252">
@@ -7410,7 +7410,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>216370</v>
+        <v>787130</v>
       </c>
     </row>
     <row r="253">
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>868234</v>
+        <v>217622</v>
       </c>
     </row>
     <row r="254">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>689663</v>
+        <v>703899</v>
       </c>
     </row>
     <row r="255">
@@ -7494,7 +7494,7 @@
         </is>
       </c>
       <c r="F255" t="n">
-        <v>703871</v>
+        <v>454815</v>
       </c>
     </row>
     <row r="256">
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="F256" t="n">
-        <v>825414</v>
+        <v>163944</v>
       </c>
     </row>
     <row r="257">
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="F257" t="n">
-        <v>307043</v>
+        <v>710969</v>
       </c>
     </row>
     <row r="258">
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="F258" t="n">
-        <v>570314</v>
+        <v>473101</v>
       </c>
     </row>
     <row r="259">
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="F259" t="n">
-        <v>265909</v>
+        <v>986929</v>
       </c>
     </row>
     <row r="260">
@@ -7634,7 +7634,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>517725</v>
+        <v>752867</v>
       </c>
     </row>
     <row r="261">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="F261" t="n">
-        <v>939873</v>
+        <v>274637</v>
       </c>
     </row>
     <row r="262">
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="F262" t="n">
-        <v>443675</v>
+        <v>337935</v>
       </c>
     </row>
     <row r="263">
@@ -7718,7 +7718,7 @@
         </is>
       </c>
       <c r="F263" t="n">
-        <v>186426</v>
+        <v>508513</v>
       </c>
     </row>
     <row r="264">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="F264" t="n">
-        <v>47697</v>
+        <v>225271</v>
       </c>
     </row>
     <row r="265">
@@ -7774,7 +7774,7 @@
         </is>
       </c>
       <c r="F265" t="n">
-        <v>529818</v>
+        <v>645831</v>
       </c>
     </row>
     <row r="266">
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="F266" t="n">
-        <v>143193</v>
+        <v>962371</v>
       </c>
     </row>
     <row r="267">
@@ -7830,7 +7830,7 @@
         </is>
       </c>
       <c r="F267" t="n">
-        <v>945867</v>
+        <v>301556</v>
       </c>
     </row>
     <row r="268">
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="F268" t="n">
-        <v>295647</v>
+        <v>190192</v>
       </c>
     </row>
     <row r="269">
@@ -7886,7 +7886,7 @@
         </is>
       </c>
       <c r="F269" t="n">
-        <v>519600</v>
+        <v>957006</v>
       </c>
     </row>
     <row r="270">
@@ -7914,7 +7914,7 @@
         </is>
       </c>
       <c r="F270" t="n">
-        <v>941255</v>
+        <v>196479</v>
       </c>
     </row>
     <row r="271">
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="F271" t="n">
-        <v>257861</v>
+        <v>534153</v>
       </c>
     </row>
     <row r="272">
@@ -7970,7 +7970,7 @@
         </is>
       </c>
       <c r="F272" t="n">
-        <v>656685</v>
+        <v>713284</v>
       </c>
     </row>
     <row r="273">
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="F273" t="n">
-        <v>741257</v>
+        <v>720858</v>
       </c>
     </row>
     <row r="274">
@@ -8026,7 +8026,7 @@
         </is>
       </c>
       <c r="F274" t="n">
-        <v>886083</v>
+        <v>362788</v>
       </c>
     </row>
     <row r="275">
@@ -8054,7 +8054,7 @@
         </is>
       </c>
       <c r="F275" t="n">
-        <v>986310</v>
+        <v>473989</v>
       </c>
     </row>
     <row r="276">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="F276" t="n">
-        <v>480703</v>
+        <v>875144</v>
       </c>
     </row>
     <row r="277">
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="F277" t="n">
-        <v>201315</v>
+        <v>574023</v>
       </c>
     </row>
     <row r="278">
@@ -8138,7 +8138,7 @@
         </is>
       </c>
       <c r="F278" t="n">
-        <v>621010</v>
+        <v>645287</v>
       </c>
     </row>
     <row r="279">
@@ -8166,7 +8166,7 @@
         </is>
       </c>
       <c r="F279" t="n">
-        <v>861639</v>
+        <v>237226</v>
       </c>
     </row>
     <row r="280">
@@ -8194,7 +8194,7 @@
         </is>
       </c>
       <c r="F280" t="n">
-        <v>665132</v>
+        <v>243473</v>
       </c>
     </row>
     <row r="281">
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="F281" t="n">
-        <v>286191</v>
+        <v>271106</v>
       </c>
     </row>
     <row r="282">
@@ -8250,7 +8250,7 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>474227</v>
+        <v>541789</v>
       </c>
     </row>
     <row r="283">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>759880</v>
+        <v>942770</v>
       </c>
     </row>
     <row r="284">
@@ -8306,7 +8306,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>404367</v>
+        <v>542609</v>
       </c>
     </row>
     <row r="285">
@@ -8334,7 +8334,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>148966</v>
+        <v>371093</v>
       </c>
     </row>
     <row r="286">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>984535</v>
+        <v>560831</v>
       </c>
     </row>
     <row r="287">
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>211192</v>
+        <v>913744</v>
       </c>
     </row>
     <row r="288">
@@ -8418,7 +8418,7 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>467015</v>
+        <v>464123</v>
       </c>
     </row>
     <row r="289">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>786633</v>
+        <v>207273</v>
       </c>
     </row>
     <row r="290">
@@ -8474,7 +8474,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>729086</v>
+        <v>245725</v>
       </c>
     </row>
     <row r="291">
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>444875</v>
+        <v>683284</v>
       </c>
     </row>
     <row r="292">
@@ -8530,7 +8530,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>505480</v>
+        <v>984425</v>
       </c>
     </row>
     <row r="293">
@@ -8558,7 +8558,7 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>324027</v>
+        <v>732516</v>
       </c>
     </row>
     <row r="294">
@@ -8586,7 +8586,7 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>154960</v>
+        <v>824351</v>
       </c>
     </row>
     <row r="295">
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>486626</v>
+        <v>506654</v>
       </c>
     </row>
     <row r="296">
@@ -8642,7 +8642,7 @@
         </is>
       </c>
       <c r="F296" t="n">
-        <v>60465</v>
+        <v>166013</v>
       </c>
     </row>
     <row r="297">
@@ -8670,7 +8670,7 @@
         </is>
       </c>
       <c r="F297" t="n">
-        <v>414144</v>
+        <v>292155</v>
       </c>
     </row>
     <row r="298">
@@ -8698,7 +8698,7 @@
         </is>
       </c>
       <c r="F298" t="n">
-        <v>625105</v>
+        <v>461113</v>
       </c>
     </row>
     <row r="299">
@@ -8726,7 +8726,7 @@
         </is>
       </c>
       <c r="F299" t="n">
-        <v>672842</v>
+        <v>311254</v>
       </c>
     </row>
     <row r="300">
@@ -8754,7 +8754,7 @@
         </is>
       </c>
       <c r="F300" t="n">
-        <v>849036</v>
+        <v>974233</v>
       </c>
     </row>
     <row r="301">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="F301" t="n">
-        <v>626813</v>
+        <v>122405</v>
       </c>
     </row>
     <row r="302">
@@ -8810,7 +8810,7 @@
         </is>
       </c>
       <c r="F302" t="n">
-        <v>963717</v>
+        <v>776593</v>
       </c>
     </row>
     <row r="303">
@@ -8838,7 +8838,7 @@
         </is>
       </c>
       <c r="F303" t="n">
-        <v>980563</v>
+        <v>290615</v>
       </c>
     </row>
     <row r="304">
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>760677</v>
+        <v>547269</v>
       </c>
     </row>
     <row r="305">
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="F305" t="n">
-        <v>896719</v>
+        <v>324865</v>
       </c>
     </row>
     <row r="306">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>244509</v>
+        <v>579698</v>
       </c>
     </row>
     <row r="307">
@@ -8950,7 +8950,7 @@
         </is>
       </c>
       <c r="F307" t="n">
-        <v>669496</v>
+        <v>257611</v>
       </c>
     </row>
     <row r="308">
@@ -8978,7 +8978,7 @@
         </is>
       </c>
       <c r="F308" t="n">
-        <v>393763</v>
+        <v>540231</v>
       </c>
     </row>
     <row r="309">
@@ -9006,7 +9006,7 @@
         </is>
       </c>
       <c r="F309" t="n">
-        <v>154770</v>
+        <v>487549</v>
       </c>
     </row>
     <row r="310">
@@ -9034,7 +9034,7 @@
         </is>
       </c>
       <c r="F310" t="n">
-        <v>243850</v>
+        <v>966887</v>
       </c>
     </row>
     <row r="311">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="F311" t="n">
-        <v>888797</v>
+        <v>963467</v>
       </c>
     </row>
     <row r="312">
@@ -9090,7 +9090,7 @@
         </is>
       </c>
       <c r="F312" t="n">
-        <v>240782</v>
+        <v>969686</v>
       </c>
     </row>
     <row r="313">
@@ -9118,7 +9118,7 @@
         </is>
       </c>
       <c r="F313" t="n">
-        <v>5913</v>
+        <v>812573</v>
       </c>
     </row>
     <row r="314">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="F314" t="n">
-        <v>716406</v>
+        <v>858737</v>
       </c>
     </row>
     <row r="315">
@@ -9174,7 +9174,7 @@
         </is>
       </c>
       <c r="F315" t="n">
-        <v>876892</v>
+        <v>761758</v>
       </c>
     </row>
     <row r="316">
@@ -9194,7 +9194,7 @@
       </c>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="n">
-        <v>312851</v>
+        <v>365389</v>
       </c>
     </row>
     <row r="317">
@@ -9222,7 +9222,7 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>98648</v>
+        <v>455824</v>
       </c>
     </row>
     <row r="318">
@@ -9250,7 +9250,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>145310</v>
+        <v>327464</v>
       </c>
     </row>
     <row r="319">
@@ -9278,7 +9278,7 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>667768</v>
+        <v>406120</v>
       </c>
     </row>
     <row r="320">
@@ -9306,7 +9306,7 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>582459</v>
+        <v>467911</v>
       </c>
     </row>
     <row r="321">
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>684369</v>
+        <v>940493</v>
       </c>
     </row>
     <row r="322">
@@ -9362,7 +9362,7 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>503849</v>
+        <v>640437</v>
       </c>
     </row>
     <row r="323">
@@ -9390,7 +9390,7 @@
         </is>
       </c>
       <c r="F323" t="n">
-        <v>488140</v>
+        <v>127780</v>
       </c>
     </row>
     <row r="324">
@@ -9418,7 +9418,7 @@
         </is>
       </c>
       <c r="F324" t="n">
-        <v>831444</v>
+        <v>247145</v>
       </c>
     </row>
     <row r="325">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="F325" t="n">
-        <v>871960</v>
+        <v>645610</v>
       </c>
     </row>
     <row r="326">
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="F326" t="n">
-        <v>325417</v>
+        <v>776217</v>
       </c>
     </row>
     <row r="327">
@@ -9502,7 +9502,7 @@
         </is>
       </c>
       <c r="F327" t="n">
-        <v>168205</v>
+        <v>898892</v>
       </c>
     </row>
     <row r="328">
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="F328" t="n">
-        <v>569059</v>
+        <v>373202</v>
       </c>
     </row>
     <row r="329">
@@ -9558,7 +9558,7 @@
         </is>
       </c>
       <c r="F329" t="n">
-        <v>351956</v>
+        <v>302886</v>
       </c>
     </row>
     <row r="330">
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="F330" t="n">
-        <v>143720</v>
+        <v>667877</v>
       </c>
     </row>
     <row r="331">
@@ -9614,7 +9614,7 @@
         </is>
       </c>
       <c r="F331" t="n">
-        <v>506041</v>
+        <v>179612</v>
       </c>
     </row>
     <row r="332">
@@ -9642,7 +9642,7 @@
         </is>
       </c>
       <c r="F332" t="n">
-        <v>513469</v>
+        <v>733323</v>
       </c>
     </row>
     <row r="333">
@@ -9670,7 +9670,7 @@
         </is>
       </c>
       <c r="F333" t="n">
-        <v>206241</v>
+        <v>849835</v>
       </c>
     </row>
     <row r="334">
@@ -9698,7 +9698,7 @@
         </is>
       </c>
       <c r="F334" t="n">
-        <v>64400</v>
+        <v>161251</v>
       </c>
     </row>
     <row r="335">
@@ -9726,7 +9726,7 @@
         </is>
       </c>
       <c r="F335" t="n">
-        <v>565984</v>
+        <v>836181</v>
       </c>
     </row>
     <row r="336">
@@ -9754,7 +9754,7 @@
         </is>
       </c>
       <c r="F336" t="n">
-        <v>356343</v>
+        <v>482990</v>
       </c>
     </row>
     <row r="337">
@@ -9782,7 +9782,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>970053</v>
+        <v>951490</v>
       </c>
     </row>
     <row r="338">
@@ -9810,7 +9810,7 @@
         </is>
       </c>
       <c r="F338" t="n">
-        <v>489316</v>
+        <v>682609</v>
       </c>
     </row>
     <row r="339">
@@ -9838,7 +9838,7 @@
         </is>
       </c>
       <c r="F339" t="n">
-        <v>439726</v>
+        <v>839783</v>
       </c>
     </row>
     <row r="340">
@@ -9866,7 +9866,7 @@
         </is>
       </c>
       <c r="F340" t="n">
-        <v>933038</v>
+        <v>261072</v>
       </c>
     </row>
     <row r="341">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="F341" t="n">
-        <v>800421</v>
+        <v>648138</v>
       </c>
     </row>
     <row r="342">
@@ -9914,7 +9914,7 @@
       </c>
       <c r="E342" t="inlineStr"/>
       <c r="F342" t="n">
-        <v>468850</v>
+        <v>617966</v>
       </c>
     </row>
     <row r="343">
@@ -9942,7 +9942,7 @@
         </is>
       </c>
       <c r="F343" t="n">
-        <v>785625</v>
+        <v>570725</v>
       </c>
     </row>
     <row r="344">
@@ -9970,7 +9970,7 @@
         </is>
       </c>
       <c r="F344" t="n">
-        <v>471617</v>
+        <v>659266</v>
       </c>
     </row>
     <row r="345">
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="F345" t="n">
-        <v>48105</v>
+        <v>343672</v>
       </c>
     </row>
     <row r="346">
@@ -10026,7 +10026,7 @@
         </is>
       </c>
       <c r="F346" t="n">
-        <v>181938</v>
+        <v>837903</v>
       </c>
     </row>
     <row r="347">
@@ -10054,7 +10054,7 @@
         </is>
       </c>
       <c r="F347" t="n">
-        <v>102560</v>
+        <v>937381</v>
       </c>
     </row>
     <row r="348">
@@ -10082,7 +10082,7 @@
         </is>
       </c>
       <c r="F348" t="n">
-        <v>73510</v>
+        <v>692471</v>
       </c>
     </row>
     <row r="349">
@@ -10110,7 +10110,7 @@
         </is>
       </c>
       <c r="F349" t="n">
-        <v>1705</v>
+        <v>575919</v>
       </c>
     </row>
     <row r="350">
@@ -10138,7 +10138,7 @@
         </is>
       </c>
       <c r="F350" t="n">
-        <v>319243</v>
+        <v>765010</v>
       </c>
     </row>
     <row r="351">
@@ -10166,7 +10166,7 @@
         </is>
       </c>
       <c r="F351" t="n">
-        <v>491547</v>
+        <v>859083</v>
       </c>
     </row>
     <row r="352">
@@ -10194,7 +10194,7 @@
         </is>
       </c>
       <c r="F352" t="n">
-        <v>63021</v>
+        <v>383420</v>
       </c>
     </row>
     <row r="353">
@@ -10222,7 +10222,7 @@
         </is>
       </c>
       <c r="F353" t="n">
-        <v>655311</v>
+        <v>381862</v>
       </c>
     </row>
     <row r="354">
@@ -10250,7 +10250,7 @@
         </is>
       </c>
       <c r="F354" t="n">
-        <v>344455</v>
+        <v>901549</v>
       </c>
     </row>
     <row r="355">
@@ -10278,7 +10278,7 @@
         </is>
       </c>
       <c r="F355" t="n">
-        <v>359436</v>
+        <v>114784</v>
       </c>
     </row>
     <row r="356">
@@ -10306,7 +10306,7 @@
         </is>
       </c>
       <c r="F356" t="n">
-        <v>552537</v>
+        <v>647055</v>
       </c>
     </row>
     <row r="357">
@@ -10334,7 +10334,7 @@
         </is>
       </c>
       <c r="F357" t="n">
-        <v>821560</v>
+        <v>234562</v>
       </c>
     </row>
     <row r="358">
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>954172</v>
+        <v>558079</v>
       </c>
     </row>
     <row r="359">
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="F359" t="n">
-        <v>828596</v>
+        <v>658247</v>
       </c>
     </row>
     <row r="360">
@@ -10418,7 +10418,7 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>776828</v>
+        <v>344249</v>
       </c>
     </row>
     <row r="361">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="F361" t="n">
-        <v>629580</v>
+        <v>945867</v>
       </c>
     </row>
     <row r="362">
@@ -10474,7 +10474,7 @@
         </is>
       </c>
       <c r="F362" t="n">
-        <v>22134</v>
+        <v>492336</v>
       </c>
     </row>
     <row r="363">
@@ -10502,7 +10502,7 @@
         </is>
       </c>
       <c r="F363" t="n">
-        <v>283138</v>
+        <v>216060</v>
       </c>
     </row>
     <row r="364">
@@ -10530,7 +10530,7 @@
         </is>
       </c>
       <c r="F364" t="n">
-        <v>371409</v>
+        <v>707616</v>
       </c>
     </row>
     <row r="365">
@@ -10558,7 +10558,7 @@
         </is>
       </c>
       <c r="F365" t="n">
-        <v>945058</v>
+        <v>527414</v>
       </c>
     </row>
     <row r="366">
@@ -10586,7 +10586,7 @@
         </is>
       </c>
       <c r="F366" t="n">
-        <v>507795</v>
+        <v>676243</v>
       </c>
     </row>
     <row r="367">
@@ -10614,7 +10614,7 @@
         </is>
       </c>
       <c r="F367" t="n">
-        <v>476587</v>
+        <v>114559</v>
       </c>
     </row>
     <row r="368">
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>251383</v>
+        <v>991420</v>
       </c>
     </row>
     <row r="369">
@@ -10670,7 +10670,7 @@
         </is>
       </c>
       <c r="F369" t="n">
-        <v>875725</v>
+        <v>899337</v>
       </c>
     </row>
     <row r="370">
@@ -10698,7 +10698,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>803939</v>
+        <v>891130</v>
       </c>
     </row>
     <row r="371">
@@ -10726,7 +10726,7 @@
         </is>
       </c>
       <c r="F371" t="n">
-        <v>162178</v>
+        <v>672202</v>
       </c>
     </row>
     <row r="372">
@@ -10754,7 +10754,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>993677</v>
+        <v>615991</v>
       </c>
     </row>
     <row r="373">
@@ -10782,7 +10782,7 @@
         </is>
       </c>
       <c r="F373" t="n">
-        <v>745021</v>
+        <v>445855</v>
       </c>
     </row>
     <row r="374">
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="F374" t="n">
-        <v>642433</v>
+        <v>412461</v>
       </c>
     </row>
     <row r="375">
@@ -10838,7 +10838,7 @@
         </is>
       </c>
       <c r="F375" t="n">
-        <v>833801</v>
+        <v>972308</v>
       </c>
     </row>
     <row r="376">
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="F376" t="n">
-        <v>315795</v>
+        <v>148334</v>
       </c>
     </row>
     <row r="377">
@@ -10894,7 +10894,7 @@
         </is>
       </c>
       <c r="F377" t="n">
-        <v>691126</v>
+        <v>147641</v>
       </c>
     </row>
     <row r="378">
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="F378" t="n">
-        <v>467876</v>
+        <v>562719</v>
       </c>
     </row>
     <row r="379">
@@ -10950,7 +10950,7 @@
         </is>
       </c>
       <c r="F379" t="n">
-        <v>384988</v>
+        <v>862320</v>
       </c>
     </row>
     <row r="380">
@@ -10978,7 +10978,7 @@
         </is>
       </c>
       <c r="F380" t="n">
-        <v>643782</v>
+        <v>998887</v>
       </c>
     </row>
     <row r="381">
@@ -11006,7 +11006,7 @@
         </is>
       </c>
       <c r="F381" t="n">
-        <v>275392</v>
+        <v>943604</v>
       </c>
     </row>
     <row r="382">
@@ -11034,7 +11034,7 @@
         </is>
       </c>
       <c r="F382" t="n">
-        <v>781249</v>
+        <v>703026</v>
       </c>
     </row>
     <row r="383">
@@ -11062,7 +11062,7 @@
         </is>
       </c>
       <c r="F383" t="n">
-        <v>520114</v>
+        <v>406857</v>
       </c>
     </row>
     <row r="384">
@@ -11090,7 +11090,7 @@
         </is>
       </c>
       <c r="F384" t="n">
-        <v>365103</v>
+        <v>800114</v>
       </c>
     </row>
     <row r="385">
@@ -11118,7 +11118,7 @@
         </is>
       </c>
       <c r="F385" t="n">
-        <v>796058</v>
+        <v>403392</v>
       </c>
     </row>
     <row r="386">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="F386" t="n">
-        <v>490038</v>
+        <v>170297</v>
       </c>
     </row>
     <row r="387">
@@ -11174,7 +11174,7 @@
         </is>
       </c>
       <c r="F387" t="n">
-        <v>184790</v>
+        <v>907490</v>
       </c>
     </row>
     <row r="388">
@@ -11202,7 +11202,7 @@
         </is>
       </c>
       <c r="F388" t="n">
-        <v>102391</v>
+        <v>746780</v>
       </c>
     </row>
     <row r="389">
@@ -11230,7 +11230,7 @@
         </is>
       </c>
       <c r="F389" t="n">
-        <v>461616</v>
+        <v>563310</v>
       </c>
     </row>
     <row r="390">
@@ -11258,7 +11258,7 @@
         </is>
       </c>
       <c r="F390" t="n">
-        <v>971869</v>
+        <v>512115</v>
       </c>
     </row>
     <row r="391">
@@ -11286,7 +11286,7 @@
         </is>
       </c>
       <c r="F391" t="n">
-        <v>286</v>
+        <v>480580</v>
       </c>
     </row>
     <row r="392">
@@ -11314,7 +11314,7 @@
         </is>
       </c>
       <c r="F392" t="n">
-        <v>756733</v>
+        <v>801319</v>
       </c>
     </row>
     <row r="393">
@@ -11342,7 +11342,7 @@
         </is>
       </c>
       <c r="F393" t="n">
-        <v>183872</v>
+        <v>509104</v>
       </c>
     </row>
     <row r="394">
@@ -11370,7 +11370,7 @@
         </is>
       </c>
       <c r="F394" t="n">
-        <v>494530</v>
+        <v>776388</v>
       </c>
     </row>
     <row r="395">
@@ -11398,7 +11398,7 @@
         </is>
       </c>
       <c r="F395" t="n">
-        <v>49246</v>
+        <v>448547</v>
       </c>
     </row>
     <row r="396">
@@ -11426,7 +11426,7 @@
         </is>
       </c>
       <c r="F396" t="n">
-        <v>574798</v>
+        <v>838572</v>
       </c>
     </row>
     <row r="397">
@@ -11454,7 +11454,7 @@
         </is>
       </c>
       <c r="F397" t="n">
-        <v>946878</v>
+        <v>208299</v>
       </c>
     </row>
     <row r="398">
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="F398" t="n">
-        <v>370599</v>
+        <v>599156</v>
       </c>
     </row>
     <row r="399">
@@ -11510,7 +11510,7 @@
         </is>
       </c>
       <c r="F399" t="n">
-        <v>659393</v>
+        <v>302086</v>
       </c>
     </row>
     <row r="400">
@@ -11538,7 +11538,7 @@
         </is>
       </c>
       <c r="F400" t="n">
-        <v>2832</v>
+        <v>568471</v>
       </c>
     </row>
     <row r="401">
@@ -11566,7 +11566,7 @@
         </is>
       </c>
       <c r="F401" t="n">
-        <v>414654</v>
+        <v>398911</v>
       </c>
     </row>
     <row r="402">
@@ -11594,7 +11594,7 @@
         </is>
       </c>
       <c r="F402" t="n">
-        <v>474050</v>
+        <v>351438</v>
       </c>
     </row>
     <row r="403">
@@ -11622,7 +11622,7 @@
         </is>
       </c>
       <c r="F403" t="n">
-        <v>427602</v>
+        <v>122437</v>
       </c>
     </row>
     <row r="404">
@@ -11650,7 +11650,7 @@
         </is>
       </c>
       <c r="F404" t="n">
-        <v>342408</v>
+        <v>569522</v>
       </c>
     </row>
     <row r="405">
@@ -11678,7 +11678,7 @@
         </is>
       </c>
       <c r="F405" t="n">
-        <v>721109</v>
+        <v>181567</v>
       </c>
     </row>
     <row r="406">
@@ -11706,7 +11706,7 @@
         </is>
       </c>
       <c r="F406" t="n">
-        <v>33938</v>
+        <v>697274</v>
       </c>
     </row>
     <row r="407">
@@ -11734,7 +11734,7 @@
         </is>
       </c>
       <c r="F407" t="n">
-        <v>249803</v>
+        <v>824994</v>
       </c>
     </row>
     <row r="408">
@@ -11762,7 +11762,7 @@
         </is>
       </c>
       <c r="F408" t="n">
-        <v>565150</v>
+        <v>578196</v>
       </c>
     </row>
     <row r="409">
@@ -11790,7 +11790,7 @@
         </is>
       </c>
       <c r="F409" t="n">
-        <v>948694</v>
+        <v>725023</v>
       </c>
     </row>
     <row r="410">
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="F410" t="n">
-        <v>927357</v>
+        <v>912824</v>
       </c>
     </row>
     <row r="411">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="F411" t="n">
-        <v>585492</v>
+        <v>265761</v>
       </c>
     </row>
     <row r="412">
@@ -11874,7 +11874,7 @@
         </is>
       </c>
       <c r="F412" t="n">
-        <v>501249</v>
+        <v>509888</v>
       </c>
     </row>
     <row r="413">
@@ -11902,7 +11902,7 @@
         </is>
       </c>
       <c r="F413" t="n">
-        <v>902727</v>
+        <v>100126</v>
       </c>
     </row>
     <row r="414">
@@ -11930,7 +11930,7 @@
         </is>
       </c>
       <c r="F414" t="n">
-        <v>973407</v>
+        <v>461345</v>
       </c>
     </row>
     <row r="415">
@@ -11958,7 +11958,7 @@
         </is>
       </c>
       <c r="F415" t="n">
-        <v>802165</v>
+        <v>523519</v>
       </c>
     </row>
     <row r="416">
@@ -11986,7 +11986,7 @@
         </is>
       </c>
       <c r="F416" t="n">
-        <v>714004</v>
+        <v>266629</v>
       </c>
     </row>
     <row r="417">
@@ -12014,7 +12014,7 @@
         </is>
       </c>
       <c r="F417" t="n">
-        <v>938680</v>
+        <v>732151</v>
       </c>
     </row>
     <row r="418">
@@ -12042,7 +12042,7 @@
         </is>
       </c>
       <c r="F418" t="n">
-        <v>681897</v>
+        <v>817317</v>
       </c>
     </row>
     <row r="419">
@@ -12070,7 +12070,7 @@
         </is>
       </c>
       <c r="F419" t="n">
-        <v>80451</v>
+        <v>553694</v>
       </c>
     </row>
     <row r="420">
@@ -12098,7 +12098,7 @@
         </is>
       </c>
       <c r="F420" t="n">
-        <v>154347</v>
+        <v>761085</v>
       </c>
     </row>
     <row r="421">
@@ -12126,7 +12126,7 @@
         </is>
       </c>
       <c r="F421" t="n">
-        <v>178034</v>
+        <v>847650</v>
       </c>
     </row>
     <row r="422">
@@ -12154,7 +12154,7 @@
         </is>
       </c>
       <c r="F422" t="n">
-        <v>235839</v>
+        <v>228029</v>
       </c>
     </row>
     <row r="423">
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="F423" t="n">
-        <v>895864</v>
+        <v>934281</v>
       </c>
     </row>
     <row r="424">
@@ -12210,7 +12210,7 @@
         </is>
       </c>
       <c r="F424" t="n">
-        <v>713263</v>
+        <v>578479</v>
       </c>
     </row>
     <row r="425">
@@ -12238,7 +12238,7 @@
         </is>
       </c>
       <c r="F425" t="n">
-        <v>714728</v>
+        <v>890799</v>
       </c>
     </row>
     <row r="426">
@@ -12266,7 +12266,7 @@
         </is>
       </c>
       <c r="F426" t="n">
-        <v>346574</v>
+        <v>953396</v>
       </c>
     </row>
     <row r="427">
@@ -12294,7 +12294,7 @@
         </is>
       </c>
       <c r="F427" t="n">
-        <v>604493</v>
+        <v>120304</v>
       </c>
     </row>
     <row r="428">
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="F428" t="n">
-        <v>96392</v>
+        <v>495665</v>
       </c>
     </row>
     <row r="429">
@@ -12350,7 +12350,7 @@
         </is>
       </c>
       <c r="F429" t="n">
-        <v>499430</v>
+        <v>267495</v>
       </c>
     </row>
     <row r="430">
@@ -12378,7 +12378,7 @@
         </is>
       </c>
       <c r="F430" t="n">
-        <v>531079</v>
+        <v>872571</v>
       </c>
     </row>
     <row r="431">
@@ -12406,7 +12406,7 @@
         </is>
       </c>
       <c r="F431" t="n">
-        <v>302628</v>
+        <v>589195</v>
       </c>
     </row>
     <row r="432">
@@ -12434,7 +12434,7 @@
         </is>
       </c>
       <c r="F432" t="n">
-        <v>305737</v>
+        <v>132977</v>
       </c>
     </row>
     <row r="433">
@@ -12462,7 +12462,7 @@
         </is>
       </c>
       <c r="F433" t="n">
-        <v>498973</v>
+        <v>430706</v>
       </c>
     </row>
     <row r="434">
@@ -12490,7 +12490,7 @@
         </is>
       </c>
       <c r="F434" t="n">
-        <v>668700</v>
+        <v>573985</v>
       </c>
     </row>
   </sheetData>
